--- a/4_classification&evaluation/output/evaluation_labels.xlsx
+++ b/4_classification&evaluation/output/evaluation_labels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,59 +1447,47 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8930392156862744</v>
+        <v>0.8589267285861713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8601307189542483</v>
+        <v>0.918954248366013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.875453272217978</v>
+        <v>0.8875387993035051</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8636764705882353</v>
+        <v>0.8883006535947713</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8026143790849674</v>
+        <v>0.9183006535947712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8309491978609624</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.8224853577794754</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.8594771241830065</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8356152386512917</v>
-      </c>
+        <v>0.9026448474126493</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>0.8470261437908497</v>
+        <v>0.8704471964224286</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8267973856209151</v>
+        <v>0.9300653594771241</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8351718869365927</v>
+        <v>0.8989100201484103</v>
       </c>
       <c r="N17" t="n">
-        <v>0.840420168067227</v>
+        <v>0.8539309056956116</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8150326797385621</v>
+        <v>0.9300653594771241</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8232966159436748</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.8851694186446508</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.8836601307189543</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.8838158555805615</v>
-      </c>
+        <v>0.8895168212815271</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1508,59 +1496,47 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7660474308300396</v>
+        <v>0.9418300653594771</v>
       </c>
       <c r="C18" t="n">
-        <v>0.848421052631579</v>
+        <v>0.8178947368421052</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8045028765902277</v>
+        <v>0.875343764817449</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7508260869565218</v>
+        <v>0.9446241830065361</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8589473684210527</v>
+        <v>0.8378947368421054</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7999647066238104</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.7597159833630421</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.7773684210526315</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7653049289891396</v>
-      </c>
+        <v>0.8871326966063808</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>0.7205292678336155</v>
+        <v>0.930718954248366</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8278947368421052</v>
+        <v>0.7978947368421052</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7697074791345921</v>
+        <v>0.8588114430219693</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7445451573598026</v>
+        <v>0.9326797385620915</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8184210526315789</v>
+        <v>0.8284210526315789</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7780926201799713</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.8157142857142858</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.8478947368421054</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.831219512195122</v>
-      </c>
+        <v>0.8770981507823613</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1569,59 +1545,47 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8284515636918384</v>
+        <v>0.7568563002484122</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8526315789473683</v>
+        <v>0.8</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8388538914854704</v>
+        <v>0.7756904769741739</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8477205695397915</v>
+        <v>0.7818270944741533</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8526315789473683</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8471815713920978</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.723006512937863</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.7263157894736841</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7169486215538847</v>
-      </c>
+        <v>0.8082541898764248</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>0.7741418764302059</v>
+        <v>0.763254658385093</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.9052631578947368</v>
       </c>
       <c r="M19" t="n">
-        <v>0.780112443270338</v>
+        <v>0.8274923450533207</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8058606661581489</v>
+        <v>0.7841818181818182</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8315789473684211</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8167331009436273</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.7761904761904762</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.8421052631578949</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.8076923076923078</v>
-      </c>
+        <v>0.852186025356757</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1630,59 +1594,47 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7407602339181286</v>
+        <v>0.8122943722943722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7382352941176469</v>
+        <v>0.6897058823529412</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7376082251082251</v>
+        <v>0.7419895964250804</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7980128205128205</v>
+        <v>0.8278057889822596</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7860294117647059</v>
+        <v>0.7720588235294118</v>
       </c>
       <c r="G20" t="n">
-        <v>0.785947310947311</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.7651821862348178</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.6551470588235295</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6967487684729063</v>
-      </c>
+        <v>0.7968111995531351</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>0.7234356725146199</v>
+        <v>0.911888111888112</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7375</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7281313131313132</v>
+        <v>0.750168970814132</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7474565162033192</v>
+        <v>0.8987878787878788</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7742647058823529</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7520933683647156</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.7500000000000001</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.7139705882352941</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.7257432701398219</v>
-      </c>
+        <v>0.7541096515234447</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1691,363 +1643,656 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8920158238734089</v>
+        <v>0.7388787878787879</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7952380952380953</v>
+        <v>0.8338095238095239</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8393657219973008</v>
+        <v>0.7819244711927638</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9028551771585827</v>
+        <v>0.8143228624921989</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8138095238095238</v>
+        <v>0.8538095238095238</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8553036437246962</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.7024614566719829</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.6985714285714286</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6989904404538552</v>
-      </c>
+        <v>0.832298142394569</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>0.9177089783281733</v>
+        <v>0.7706469038208168</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7557142857142857</v>
+        <v>0.8823809523809525</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8264867296446244</v>
+        <v>0.8222759152991712</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9150089126559715</v>
+        <v>0.8159043854696029</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7466666666666667</v>
+        <v>0.8723809523809525</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8161132561132561</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.8014529974669294</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.7261904761904761</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.7597866202517365</v>
-      </c>
+        <v>0.8430936052036448</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Ensemble_F</t>
+          <t>RF_F</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8589267285861713</v>
+        <v>0.8695098039215686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.918954248366013</v>
+        <v>0.8379084967320262</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8875387993035051</v>
+        <v>0.8519989814107461</v>
       </c>
       <c r="E22" t="n">
-        <v>0.866594427244582</v>
+        <v>0.8777450980392156</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9065359477124183</v>
+        <v>0.8143790849673203</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8852146263910969</v>
+        <v>0.8438057040998217</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7834963411201802</v>
+        <v>0.8098245614035087</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8248366013071895</v>
+        <v>0.8130718954248366</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8018894830659538</v>
+        <v>0.8090840840840841</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8704471964224286</v>
+        <v>0.8383006535947712</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9300653594771241</v>
+        <v>0.8261437908496733</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8989100201484103</v>
+        <v>0.8305373058314235</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8539309056956116</v>
+        <v>0.8502380952380953</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9300653594771241</v>
+        <v>0.884967320261438</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8895168212815271</v>
+        <v>0.8627428522165363</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8819444444444444</v>
+        <v>0.8572222222222223</v>
       </c>
       <c r="R22" t="n">
-        <v>0.861437908496732</v>
+        <v>0.8960784313725491</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8705067481538069</v>
+        <v>0.875050895050895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Ensemble_NF</t>
+          <t>RF_NF</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9418300653594771</v>
+        <v>0.7651044607566347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8178947368421052</v>
+        <v>0.848421052631579</v>
       </c>
       <c r="D23" t="n">
-        <v>0.875343764817449</v>
+        <v>0.8041811846689895</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9365978672170622</v>
+        <v>0.7415019762845849</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8394736842105264</v>
+        <v>0.8384210526315791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8828225970331234</v>
+        <v>0.7867109634551495</v>
       </c>
       <c r="H23" t="n">
-        <v>0.753416149068323</v>
+        <v>0.7700564283684488</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7663157894736842</v>
+        <v>0.786842105263158</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7579312859573778</v>
+        <v>0.7759398022376797</v>
       </c>
       <c r="K23" t="n">
-        <v>0.930718954248366</v>
+        <v>0.7230476190476191</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7978947368421052</v>
+        <v>0.8289473684210528</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8588114430219693</v>
+        <v>0.770600732222967</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9313725490196079</v>
+        <v>0.7757735247208932</v>
       </c>
       <c r="O23" t="n">
         <v>0.8184210526315789</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8708392603129445</v>
+        <v>0.7945881250532414</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.772012987012987</v>
+        <v>0.8336150983519405</v>
       </c>
       <c r="R23" t="n">
-        <v>0.8378947368421054</v>
+        <v>0.8278947368421052</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8024384841855063</v>
+        <v>0.8293779006615978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Ensemble_PM</t>
+          <t>RF_PM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7568563002484122</v>
+        <v>0.837280701754386</v>
       </c>
       <c r="C24" t="n">
+        <v>0.8315789473684211</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8307135532104931</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8190449385495825</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.8</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.7756904769741739</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8546223513328777</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8315789473684209</v>
-      </c>
       <c r="G24" t="n">
-        <v>0.8365236817098177</v>
+        <v>0.8075479844414375</v>
       </c>
       <c r="H24" t="n">
-        <v>0.742280701754386</v>
+        <v>0.7317555251765778</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7789473684210526</v>
+        <v>0.7684210526315789</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7568654193623593</v>
+        <v>0.742875209991668</v>
       </c>
       <c r="K24" t="n">
-        <v>0.763254658385093</v>
+        <v>0.7786967418546367</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9052631578947368</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8274923450533207</v>
+        <v>0.8076038037849542</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7783356643356644</v>
+        <v>0.8582761250953471</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9368421052631579</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8483476415183733</v>
+        <v>0.8587685429790692</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7761904761904763</v>
+        <v>0.7807359307359307</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8315789473684211</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8021621621621622</v>
+        <v>0.8196998123827394</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Ensemble_M</t>
+          <t>RF_M</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8122943722943722</v>
+        <v>0.7224999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6897058823529412</v>
+        <v>0.7499999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7419895964250804</v>
+        <v>0.7331695331695333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8873039215686275</v>
+        <v>0.7270707070707071</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7845588235294118</v>
+        <v>0.7625</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83044908285895</v>
+        <v>0.7389077423287949</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7886688311688312</v>
+        <v>0.7784615384615385</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7147058823529411</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="J25" t="n">
-        <v>0.742633710375646</v>
+        <v>0.6928686635944701</v>
       </c>
       <c r="K25" t="n">
-        <v>0.911888111888112</v>
+        <v>0.7531031197904262</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6411764705882353</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="M25" t="n">
-        <v>0.750168970814132</v>
+        <v>0.7355602240896358</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8987878787878788</v>
+        <v>0.7732308377896613</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6647058823529413</v>
+        <v>0.7860294117647058</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7624840357598979</v>
+        <v>0.7753002157800919</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8206277056277056</v>
+        <v>0.7634920634920637</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6544117647058824</v>
+        <v>0.7367647058823529</v>
       </c>
       <c r="S25" t="n">
-        <v>0.7240167646591452</v>
+        <v>0.7458619672803735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>RF_V</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9012220502235981</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7957142857142856</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.843093336251231</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8948459383753502</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7952380952380953</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.8388835305138258</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.7623627580149319</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7947619047619047</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7762237762237761</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9429179566563468</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7561904761904762</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8353608431007812</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9044444444444444</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7761904761904761</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8306432748538011</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.840060936655364</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.7366666666666666</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.7820865484536859</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble_F</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8589267285861713</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.918954248366013</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8875387993035051</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.866594427244582</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9065359477124183</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8852146263910969</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8327030812324929</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8013071895424837</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8152546336227552</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8704471964224286</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9300653594771241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8989100201484103</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8539309056956116</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9300653594771241</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8895168212815271</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.8548916408668731</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8718954248366014</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8620633580385902</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble_NF</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9418300653594771</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8178947368421052</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.875343764817449</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9365978672170622</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8394736842105264</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8828225970331234</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7717703349282298</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7778947368421052</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.7741758241758241</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.930718954248366</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7978947368421052</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8588114430219693</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9313725490196079</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8184210526315789</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8708392603129445</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7560079051383399</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8173684210526316</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7850626118067978</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble_PM</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7568563002484122</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7756904769741739</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8546223513328777</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8315789473684209</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.8365236817098177</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7233980999930656</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8105263157894737</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7615953348944363</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.763254658385093</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9052631578947368</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8274923450533207</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.7783356643356644</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9368421052631579</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.8483476415183733</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.7248914777061228</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.7789473684210526</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.7494469402043213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble_M</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8122943722943722</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6897058823529412</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7419895964250804</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8873039215686275</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7845588235294118</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.83044908285895</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7174134053081422</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6551470588235293</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6791707717569786</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.911888111888112</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6411764705882353</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.750168970814132</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8987878787878788</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6647058823529413</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7624840357598979</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.723953823953824</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.5492647058823529</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6079831932773109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
           <t>Ensemble_V</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>0.7388787878787879</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>0.8338095238095239</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>0.7819244711927638</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E31" t="n">
         <v>0.7767297517297517</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F31" t="n">
         <v>0.9033333333333331</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G31" t="n">
         <v>0.8324947685052375</v>
       </c>
-      <c r="H26" t="n">
-        <v>0.7132819794584501</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6676190476190476</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6869325808478569</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="H31" t="n">
+        <v>0.7704201680672269</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7447619047619047</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7564268449634304</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7706469038208168</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.8823809523809525</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M31" t="n">
         <v>0.8222759152991712</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N31" t="n">
         <v>0.8236965932618106</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O31" t="n">
         <v>0.8723809523809525</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P31" t="n">
         <v>0.8472747898726345</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0.7588402825244931</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.7747619047619048</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.7660730647684704</v>
+      <c r="Q31" t="n">
+        <v>0.7208994708994709</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.7280952380952381</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7174481175519057</v>
       </c>
     </row>
   </sheetData>
